--- a/fertilization/fertilizer_addition_20240607.xlsx
+++ b/fertilization/fertilizer_addition_20240607.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/fertilization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AE4801-93EC-5747-906F-E333A90F1ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A894153F-B400-414D-AD0D-E081147B7C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3740" windowWidth="38400" windowHeight="21600" xr2:uid="{894E8D85-BD71-D744-B56B-250ABA74CB59}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{894E8D85-BD71-D744-B56B-250ABA74CB59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B127DB-AC1C-8B47-8F57-7D10852764A8}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="297" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="235" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/fertilization/fertilizer_addition_20240607.xlsx
+++ b/fertilization/fertilizer_addition_20240607.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/Documents/github/fuelinex/fertilization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A894153F-B400-414D-AD0D-E081147B7C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC2FCF4-D37D-CE45-870E-A93D829A2451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{894E8D85-BD71-D744-B56B-250ABA74CB59}"/>
   </bookViews>
